--- a/excel_download_test.xlsx
+++ b/excel_download_test.xlsx
@@ -61,7 +61,7 @@
     <t>All</t>
   </si>
   <si>
-    <t>Kivi</t>
+    <t>Kiwi</t>
   </si>
   <si>
     <t>Green</t>
